--- a/PSP2/psp-forms/Overall Metrics.xlsx
+++ b/PSP2/psp-forms/Overall Metrics.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="excel" sheetId="1" r:id="rId1"/>
+    <sheet name="excel (8)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel" localSheetId="0">excel!$A$1:$D$25</definedName>
+    <definedName name="excel__8" localSheetId="0">'excel (8)'!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,14 +23,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="D:\afmap\Descargas\excel.iqy" name="excel" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" odcFile="D:\afmap\Descargas\excel (8).iqy" name="excel (8)" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B3%2F%2Fcms%2Fpsp2%2Fsummary%3Fsection%3D102%26frame%3Dcontent&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>/Non Project/PSP Fundamentals &amp; Advanced/Program 3</t>
   </si>
@@ -80,16 +80,13 @@
     <t>Yield %</t>
   </si>
   <si>
-    <t>#DIV/0!</t>
-  </si>
-  <si>
     <t>Code Review Rate</t>
   </si>
   <si>
     <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
   </si>
   <si>
-    <t>Reporte generado a las 04:14 PM el 4/03/2017</t>
+    <t>Reporte generado a las 09:41 PM el 6/03/2017</t>
   </si>
 </sst>
 </file>
@@ -741,7 +738,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (8)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1009,7 +1006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1065,10 +1064,10 @@
         <v>38.799999999999997</v>
       </c>
       <c r="C8" s="7">
-        <v>27.9</v>
+        <v>30.5</v>
       </c>
       <c r="D8" s="7">
-        <v>37.700000000000003</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="13">
-        <v>9.4999999999999998E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>7.92</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="7">
-        <v>7.92</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1168,8 +1167,8 @@
       <c r="B16" s="11">
         <v>0</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>16</v>
+      <c r="C16" s="7">
+        <v>0</v>
       </c>
       <c r="D16" s="12">
         <v>0</v>
@@ -1177,16 +1176,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8">
         <v>418</v>
       </c>
       <c r="C17" s="7">
-        <v>340</v>
+        <v>371</v>
       </c>
       <c r="D17" s="7">
-        <v>842</v>
+        <v>873</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1197,12 +1196,12 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
